--- a/jesus/Horarios GIIM (24-25).xlsx
+++ b/jesus/Horarios GIIM (24-25).xlsx
@@ -16,14 +16,14 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">1GIIM!$A$1:$P$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">2GIIM!$A$2:$M$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">2GIIM!$A$1:$M$60</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">3GIIM!$A$1:$P$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">4GIIM!$A$2:$M$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">4GIIM!$A$1:$M$30</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">5GIIM!$A$1:$M$30</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">2GIIM!$A$1:$M$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">2GIIM!$A$2:$M$59</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">4GIIM!$A$1:$M$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">4GIIM!$A$2:$M$30</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="145">
   <si>
     <t xml:space="preserve">1º Grado en Ingeniería Informática y Matemáticas</t>
   </si>
@@ -392,16 +392,10 @@
     <t xml:space="preserve">FIS: Fundamentos de Ingeniería del Software</t>
   </si>
   <si>
-    <t xml:space="preserve">No cambiar (Cecilia)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
     <t xml:space="preserve">IA: Inteligencia Artificial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No cambiar la teoría (P. Herrera)</t>
   </si>
   <si>
     <t xml:space="preserve">ISE (A1)</t>
@@ -417,9 +411,6 @@
   </si>
   <si>
     <t xml:space="preserve">ISE: Ingeniería de Servidores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No cambiar las horas de prácticas de ISE (David  Palomar) ni las de teoría (Pablo García)</t>
   </si>
   <si>
     <t xml:space="preserve">3.9</t>
@@ -2958,7 +2949,7 @@
   </sheetPr>
   <dimension ref="A2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -4412,8 +4403,8 @@
     <mergeCell ref="A58:A59"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4428,8 +4419,8 @@
   </sheetPr>
   <dimension ref="A1:AME1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N56" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R46" activeCellId="0" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35909,8 +35900,8 @@
     <mergeCell ref="A58:A59"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="55" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="55" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -35925,8 +35916,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J55" activeCellId="0" sqref="J55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q48" activeCellId="0" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36994,9 +36985,6 @@
       <c r="P48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="44"/>
@@ -37008,12 +36996,12 @@
       <c r="G49" s="17"/>
       <c r="H49" s="16"/>
       <c r="I49" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J49" s="88"/>
       <c r="K49" s="88"/>
       <c r="L49" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M49" s="88"/>
       <c r="N49" s="88"/>
@@ -37041,10 +37029,7 @@
       <c r="M50" s="85"/>
       <c r="N50" s="85"/>
       <c r="P50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37057,12 +37042,12 @@
       <c r="G51" s="17"/>
       <c r="H51" s="16"/>
       <c r="I51" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J51" s="88"/>
       <c r="K51" s="88"/>
       <c r="L51" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M51" s="88"/>
       <c r="N51" s="88"/>
@@ -37086,25 +37071,23 @@
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="L52" s="85" t="s">
         <v>123</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L52" s="85" t="s">
-        <v>125</v>
       </c>
       <c r="M52" s="85"/>
       <c r="N52" s="85"/>
       <c r="P52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Q52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="45"/>
@@ -37122,10 +37105,10 @@
         <v>89</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L53" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M53" s="88"/>
       <c r="N53" s="88"/>
@@ -37148,16 +37131,16 @@
       <c r="G54" s="31"/>
       <c r="H54" s="31"/>
       <c r="I54" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K54" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="L54" s="85" t="s">
         <v>123</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L54" s="85" t="s">
-        <v>125</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85"/>
@@ -37179,10 +37162,10 @@
         <v>89</v>
       </c>
       <c r="K55" s="40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L55" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M55" s="88"/>
       <c r="N55" s="88"/>
@@ -37205,20 +37188,20 @@
       <c r="G56" s="31"/>
       <c r="H56" s="31"/>
       <c r="I56" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L56" s="198"/>
       <c r="M56" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N56" s="167" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37259,20 +37242,20 @@
       <c r="G58" s="24"/>
       <c r="H58" s="23"/>
       <c r="I58" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L58" s="25"/>
       <c r="M58" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N58" s="167" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37746,8 +37729,8 @@
     <mergeCell ref="A58:A59"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -37762,7 +37745,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -37789,7 +37772,7 @@
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -37846,7 +37829,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="203"/>
       <c r="D5" s="86"/>
@@ -37859,7 +37842,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="202"/>
       <c r="M5" s="104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37883,14 +37866,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="205" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="205" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -37900,7 +37883,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="206"/>
       <c r="M7" s="107" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37929,13 +37912,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="209" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="85" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>140</v>
       </c>
       <c r="E9" s="85"/>
       <c r="F9" s="31" t="s">
@@ -37962,7 +37945,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="31"/>
@@ -37979,14 +37962,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="212" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="212"/>
       <c r="D11" s="86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" s="205" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>34</v>
@@ -38028,14 +38011,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="209" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>37</v>
@@ -38417,8 +38400,8 @@
     <mergeCell ref="A28:A29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="55" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="55" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -38433,7 +38416,7 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -38460,7 +38443,7 @@
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="224" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="224"/>
       <c r="C2" s="224"/>
@@ -38741,7 +38724,7 @@
       <c r="K18" s="216"/>
       <c r="L18" s="233"/>
       <c r="M18" s="104" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N18" s="233"/>
     </row>
@@ -38854,7 +38837,7 @@
       <c r="F26" s="166"/>
       <c r="G26" s="94"/>
       <c r="H26" s="85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26" s="85"/>
       <c r="J26" s="166"/>
@@ -38869,7 +38852,7 @@
       <c r="F27" s="173"/>
       <c r="G27" s="222"/>
       <c r="H27" s="88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" s="88"/>
       <c r="J27" s="173"/>
@@ -38886,7 +38869,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="94"/>
       <c r="H28" s="85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I28" s="85"/>
       <c r="J28" s="25"/>
@@ -38901,7 +38884,7 @@
       <c r="F29" s="262"/>
       <c r="G29" s="214"/>
       <c r="H29" s="263" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I29" s="263"/>
       <c r="J29" s="262"/>
@@ -38977,8 +38960,8 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
